--- a/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.6.xlsx
+++ b/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -110,6 +110,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -121,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="406">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1815,6 +1817,9 @@
   </si>
   <si>
     <t xml:space="preserve">Component KPIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_same_as_result</t>
   </si>
   <si>
     <t xml:space="preserve">Component aggregation</t>
@@ -2872,7 +2877,7 @@
   </sheetPr>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
@@ -2881,15 +2886,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.0526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="104.441295546559"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="203.097165991903"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.4453441295547"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="106.368421052632"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="206.740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -4971,7 +4976,7 @@
   <autoFilter ref="A1:K76">
     <filterColumn colId="3">
       <customFilters and="true">
-        <customFilter operator="equal" val="Tiene Totem CSD's 3? - Nacional"/>
+        <customFilter operator="equal" val="Tiene Totem CSD's 3. - Nacional"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -5003,9 +5008,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5091,11 +5096,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.0242914979757"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5245,14 +5250,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="84.0890688259109"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="85.587044534413"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="71.1255060728745"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5374,30 +5379,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.9514170040486"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="130.793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="133.14979757085"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="148.574898785425"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="118.473684210526"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="151.251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="120.615384615385"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5438,12 +5443,15 @@
         <v>351</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5467,21 +5475,22 @@
         <v>14</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="J2" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="L2" s="15"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="n">
         <v>6</v>
       </c>
@@ -5501,18 +5510,19 @@
         <v>14</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K3" s="15"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="n">
@@ -5534,18 +5544,19 @@
         <v>14</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K4" s="3"/>
+        <v>356</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="n">
@@ -5567,24 +5578,25 @@
         <v>14</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K5" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="L5" s="10" t="n">
+      <c r="J5" s="16"/>
+      <c r="K5" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="M5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="n">
@@ -5606,24 +5618,25 @@
         <v>14</v>
       </c>
       <c r="I6" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="L6" s="10" t="n">
+      <c r="M6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -5647,18 +5660,21 @@
         <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="J7" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="K7" s="19"/>
+      <c r="J7" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="n">
         <v>37</v>
       </c>
@@ -5678,18 +5694,21 @@
         <v>14</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>77</v>
       </c>
@@ -5712,15 +5731,18 @@
         <v>189</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="K9" s="4"/>
+        <v>327</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="19"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
-    </row>
-    <row r="10" s="30" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" s="30" customFormat="true" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="n">
         <v>63</v>
       </c>
@@ -5740,18 +5762,21 @@
         <v>14</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="J10" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="K10" s="29"/>
+        <v>363</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>361</v>
+      </c>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
-    </row>
-    <row r="11" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="n">
         <v>64</v>
       </c>
@@ -5771,18 +5796,21 @@
         <v>14</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="J11" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="K11" s="29"/>
+        <v>364</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>361</v>
+      </c>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
-    </row>
-    <row r="12" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="n">
         <v>70</v>
       </c>
@@ -5802,16 +5830,17 @@
         <v>14</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>364</v>
-      </c>
-      <c r="J12" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="K12" s="29"/>
+        <v>365</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="78" t="s">
+        <v>361</v>
+      </c>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="88" t="n">
@@ -5831,21 +5860,24 @@
         <v>14</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>365</v>
-      </c>
-      <c r="J13" s="92" t="s">
-        <v>360</v>
-      </c>
-      <c r="K13" s="92"/>
+        <v>366</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="K13" s="92" t="s">
+        <v>361</v>
+      </c>
       <c r="L13" s="92"/>
       <c r="M13" s="92"/>
       <c r="N13" s="92"/>
       <c r="O13" s="92"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="92"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="78"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="93"/>
     </row>
   </sheetData>
@@ -5943,7 +5975,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>208</v>
@@ -5963,7 +5995,7 @@
         <v>211</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O2" s="98" t="s">
         <v>49</v>
@@ -5997,13 +6029,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.412955465587"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="59.7732793522267"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="86.0161943319838"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="87.5141700404858"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6018,7 +6050,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -6027,25 +6059,25 @@
         <v>213</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6071,22 +6103,22 @@
         <v>131</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>210</v>
@@ -6127,8 +6159,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.8097165991903"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6174,19 +6206,19 @@
         <v>17</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>211</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -6216,11 +6248,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6235,7 +6267,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E1" s="99"/>
       <c r="F1" s="101"/>
@@ -6255,7 +6287,7 @@
         <v>192</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E2" s="102"/>
       <c r="F2" s="102"/>
@@ -6421,14 +6453,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="153.392712550607"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="156.178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6440,25 +6472,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D1" s="99" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F1" s="99" t="s">
         <v>282</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6472,19 +6504,19 @@
         <v>190</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E2" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G2" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I2" s="102" t="n">
         <v>1</v>
@@ -6501,19 +6533,19 @@
         <v>190</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E3" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G3" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="102" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I3" s="102" t="n">
         <v>1</v>
@@ -6530,13 +6562,13 @@
         <v>190</v>
       </c>
       <c r="D4" s="102" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E4" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G4" s="102" t="n">
         <v>3</v>
@@ -6559,19 +6591,19 @@
         <v>190</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E5" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G5" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="103" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I5" s="102" t="n">
         <v>1</v>
@@ -6603,14 +6635,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.4817813765182"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="104.441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="106.368421052632"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="104.441295546559"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="106.368421052632"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -6800,21 +6832,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="130.14979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="132.506072874494"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="100.906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="121.793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="70.9109311740891"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="123.935222672065"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="72.0890688259109"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -7289,14 +7321,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.4493927125506"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -7429,11 +7461,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="119.866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="122.008097165992"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="175.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="179.21052631579"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -7701,14 +7733,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="118.578947368421"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="125.866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="88.4817813765182"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="120.724696356275"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="128.113360323887"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="72.5182186234818"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -8290,20 +8322,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="87.8380566801619"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="57.3076923076923"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="89.4453441295547"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -8626,19 +8658,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.2064777327935"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="105.724696356275"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="107.655870445344"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -8844,15 +8876,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="101.550607287449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="99.9433198380567"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.368421052632"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="101.655870445344"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.6.xlsx
+++ b/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.6.xlsx
@@ -112,6 +112,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="406">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -2886,15 +2887,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.4453441295547"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="106.368421052632"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="206.740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.1943319838057"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="208.668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -5008,9 +5009,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.4574898785425"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5096,11 +5097,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.3481781376518"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5250,14 +5251,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="85.587044534413"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="86.336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="71.7692307692308"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5381,24 +5382,24 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.9514170040486"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="133.14979757085"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="134.327935222672"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="151.251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="120.615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="152.538461538462"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="121.793522267206"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
@@ -5662,9 +5663,7 @@
       <c r="I7" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="5" t="s">
         <v>361</v>
       </c>
@@ -6029,13 +6028,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.0566801619433"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="88.3724696356275"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6159,8 +6158,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6248,11 +6247,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6453,14 +6452,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="156.178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="157.68016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6635,14 +6634,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.1255060728745"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="106.368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="107.226720647773"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="106.368421052632"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -6832,21 +6831,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="132.506072874494"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="133.789473684211"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="84.6234817813765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="123.935222672065"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="103.692307692308"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="125.008097165992"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="72.7327935222672"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -7321,14 +7320,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.9878542510121"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -7461,11 +7460,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="122.008097165992"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="123.080971659919"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="179.21052631579"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="180.817813765182"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -7733,14 +7732,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="120.724696356275"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="128.113360323887"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="121.902834008097"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="129.291497975709"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="73.1619433198381"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -8322,20 +8321,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="89.4453441295547"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.1943319838057"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -8658,19 +8657,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="107.655870445344"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="108.619433198381"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -8876,15 +8875,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.368421052632"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="101.655870445344"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="104.226720647773"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="102.619433198381"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="48.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.6.xlsx
+++ b/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -113,6 +113,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="407">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1078,6 +1079,9 @@
   </si>
   <si>
     <t xml:space="preserve">denominator value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove irrelevant logic</t>
   </si>
   <si>
     <t xml:space="preserve">Ignore Stacking</t>
@@ -1118,6 +1122,9 @@
     <t xml:space="preserve">POS,SKU,Other</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">La cantida de frentes fríos de KO entre el total de frentes fríos, ¿la división es mayor o igual que 30%? </t>
   </si>
   <si>
@@ -1752,9 +1759,6 @@
   </si>
   <si>
     <t xml:space="preserve">Minimum facings met</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">Worth 50% of total Points available for Platform. REQUIRES PASSING RESULTS FROM "Botellas Necesarias", "Empaques Mandatorios" and "Llena al 75%% KPIs</t>
@@ -2881,21 +2885,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="E81" activeCellId="1" sqref="N1:N2 E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9554655870445"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.1943319838057"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="107.226720647773"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="208.668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.9433198380567"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="108.19028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="210.595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -5003,15 +5007,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="N1:N2 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6720647773279"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5091,17 +5095,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="N1:N2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.7732793522267"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5117,7 +5121,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>4</v>
@@ -5137,13 +5141,13 @@
         <v>136</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>135</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5157,13 +5161,13 @@
         <v>136</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>137</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5177,13 +5181,13 @@
         <v>136</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>156</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5197,13 +5201,13 @@
         <v>136</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>157</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,13 +5221,13 @@
         <v>136</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>157</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -5245,20 +5249,20 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="N1:N2 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="86.336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="87.0890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="72.4129554655871"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5283,16 +5287,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="83" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1" s="84" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -5318,17 +5322,17 @@
         <v>118</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" s="85" t="s">
         <v>205</v>
       </c>
       <c r="J2" s="85" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5348,20 +5352,20 @@
         <v>126</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G3" s="85"/>
       <c r="H3" s="87" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I3" s="85" t="s">
         <v>205</v>
       </c>
       <c r="J3" s="85" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5382,24 +5386,24 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="N1:N2 F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.4858299595142"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="134.327935222672"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="135.506072874494"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="152.538461538462"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="121.793522267206"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="153.931174089069"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="122.866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
@@ -5420,31 +5424,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -5453,7 +5457,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5476,11 +5480,11 @@
         <v>14</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
@@ -5511,11 +5515,11 @@
         <v>14</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
@@ -5545,11 +5549,11 @@
         <v>14</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -5579,14 +5583,14 @@
         <v>14</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M5" s="10" t="n">
         <v>1</v>
@@ -5619,14 +5623,14 @@
         <v>14</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M6" s="10" t="n">
         <v>1</v>
@@ -5654,18 +5658,18 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
@@ -5693,13 +5697,13 @@
         <v>14</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -5730,10 +5734,10 @@
         <v>189</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -5761,13 +5765,13 @@
         <v>14</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="K10" s="78" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
@@ -5795,13 +5799,13 @@
         <v>14</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="K11" s="78" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
@@ -5829,11 +5833,11 @@
         <v>14</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="78" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
@@ -5859,13 +5863,13 @@
         <v>14</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="K13" s="92" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L13" s="92"/>
       <c r="M13" s="92"/>
@@ -5898,7 +5902,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="N1:N2 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5939,7 +5943,7 @@
         <v>215</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L1" s="39" t="s">
         <v>200</v>
@@ -5948,7 +5952,7 @@
         <v>201</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O1" s="39" t="s">
         <v>9</v>
@@ -5971,10 +5975,10 @@
         <v>123</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>208</v>
@@ -5994,7 +5998,7 @@
         <v>211</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O2" s="98" t="s">
         <v>49</v>
@@ -6022,19 +6026,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="N1:N2 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.7004048582996"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.3805668016194"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="89.1214574898785"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6049,7 +6053,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -6058,25 +6062,25 @@
         <v>213</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6102,22 +6106,22 @@
         <v>131</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>210</v>
@@ -6151,15 +6155,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="N1:N2 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.4534412955466"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6205,19 +6209,19 @@
         <v>17</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>211</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6239,7 +6243,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="N1:N2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6247,11 +6251,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6266,7 +6270,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E1" s="99"/>
       <c r="F1" s="101"/>
@@ -6286,7 +6290,7 @@
         <v>192</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E2" s="102"/>
       <c r="F2" s="102"/>
@@ -6446,20 +6450,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="N1:N2 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.8461538461539"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="157.68016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="159.072874493927"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6471,25 +6475,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D1" s="99" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F1" s="99" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6503,19 +6507,19 @@
         <v>190</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E2" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G2" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I2" s="102" t="n">
         <v>1</v>
@@ -6532,19 +6536,19 @@
         <v>190</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E3" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="102" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G3" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="102" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I3" s="102" t="n">
         <v>1</v>
@@ -6561,19 +6565,19 @@
         <v>190</v>
       </c>
       <c r="D4" s="102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E4" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G4" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="102" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I4" s="102" t="n">
         <v>1</v>
@@ -6590,19 +6594,19 @@
         <v>190</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E5" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G5" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I5" s="102" t="n">
         <v>1</v>
@@ -6628,20 +6632,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="N1:N2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.8744939271255"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="108.19028340081"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="107.226720647773"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="108.19028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -6822,33 +6826,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="133.789473684211"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="134.971659919028"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="103.692307692308"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="125.008097165992"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="72.7327935222672"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="104.546558704453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="126.076923076923"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="73.3765182186235"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6898,18 +6902,21 @@
         <v>217</v>
       </c>
       <c r="P1" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q1" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="R1" s="39" t="s">
-        <v>218</v>
-      </c>
       <c r="S1" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="U1" s="39" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6921,20 +6928,20 @@
         <v>30</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="47" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>91</v>
@@ -6947,21 +6954,24 @@
       </c>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="N2" s="48" t="s">
+        <v>223</v>
+      </c>
       <c r="O2" s="47"/>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="R2" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="R2" s="50" t="n">
+      <c r="S2" s="50" t="n">
         <v>100</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="T2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -6971,17 +6981,17 @@
         <v>43</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>212</v>
@@ -6997,21 +7007,22 @@
       </c>
       <c r="L3" s="48"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="R3" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="50"/>
+      <c r="T3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="U3" s="49" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7023,17 +7034,17 @@
         <v>46</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>212</v>
@@ -7049,25 +7060,26 @@
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="46"/>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="46"/>
+      <c r="O4" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="R4" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="50"/>
+      <c r="T4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="U4" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>25</v>
       </c>
@@ -7075,17 +7087,17 @@
         <v>92</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>212</v>
@@ -7094,10 +7106,10 @@
         <v>91</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>208</v>
@@ -7107,24 +7119,25 @@
       </c>
       <c r="N5" s="48"/>
       <c r="O5" s="48"/>
-      <c r="P5" s="49" t="s">
-        <v>232</v>
-      </c>
+      <c r="P5" s="48"/>
       <c r="Q5" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="R5" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="R5" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="T5" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="U5" s="44"/>
-    </row>
-    <row r="6" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U5" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="V5" s="44"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>28</v>
       </c>
@@ -7132,17 +7145,17 @@
         <v>101</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>212</v>
@@ -7151,10 +7164,10 @@
         <v>91</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L6" s="47" t="s">
         <v>208</v>
@@ -7163,24 +7176,25 @@
         <v>209</v>
       </c>
       <c r="N6" s="48"/>
-      <c r="O6" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="P6" s="49" t="s">
-        <v>232</v>
+      <c r="O6" s="48"/>
+      <c r="P6" s="53" t="s">
+        <v>239</v>
       </c>
       <c r="Q6" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="R6" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="R6" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="S6" s="49" t="s">
+      <c r="S6" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="T6" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="49"/>
-    </row>
-    <row r="7" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U6" s="49"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>30</v>
       </c>
@@ -7188,17 +7202,17 @@
         <v>105</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H7" s="48" t="s">
         <v>212</v>
@@ -7207,10 +7221,10 @@
         <v>91</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L7" s="47" t="s">
         <v>208</v>
@@ -7220,21 +7234,22 @@
       </c>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
-      <c r="P7" s="49" t="s">
-        <v>232</v>
-      </c>
+      <c r="P7" s="48"/>
       <c r="Q7" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="R7" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="R7" s="52" t="n">
+      <c r="S7" s="52" t="n">
         <v>23</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="T7" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="49"/>
-    </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U7" s="49"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>33</v>
       </c>
@@ -7242,17 +7257,17 @@
         <v>113</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H8" s="48" t="s">
         <v>212</v>
@@ -7261,10 +7276,10 @@
         <v>91</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L8" s="47" t="s">
         <v>208</v>
@@ -7273,22 +7288,23 @@
         <v>209</v>
       </c>
       <c r="N8" s="48"/>
-      <c r="O8" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="P8" s="49" t="s">
-        <v>232</v>
+      <c r="O8" s="48"/>
+      <c r="P8" s="53" t="s">
+        <v>239</v>
       </c>
       <c r="Q8" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="R8" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="R8" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="S8" s="49" t="s">
+      <c r="S8" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="T8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7309,7 +7325,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="N1:N2 K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7320,14 +7336,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.5222672064777"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -7377,10 +7393,10 @@
         <v>215</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q1" s="39" t="s">
         <v>9</v>
@@ -7399,22 +7415,22 @@
         <v>35</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K2" s="44" t="s">
         <v>208</v>
@@ -7454,17 +7470,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="N1:N2 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="123.080971659919"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="124.259109311741"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="180.817813765182"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="182.425101214575"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -7486,7 +7502,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>9</v>
@@ -7495,7 +7511,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7506,7 +7522,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>41</v>
@@ -7515,7 +7531,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>34</v>
@@ -7531,7 +7547,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>41</v>
@@ -7540,7 +7556,7 @@
         <v>64</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>23</v>
@@ -7556,7 +7572,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>41</v>
@@ -7581,7 +7597,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>41</v>
@@ -7590,7 +7606,7 @@
         <v>89</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>23</v>
@@ -7606,7 +7622,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>41</v>
@@ -7631,7 +7647,7 @@
         <v>99</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>41</v>
@@ -7640,7 +7656,7 @@
         <v>89</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>23</v>
@@ -7656,7 +7672,7 @@
         <v>108</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>41</v>
@@ -7681,7 +7697,7 @@
         <v>111</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>41</v>
@@ -7690,7 +7706,7 @@
         <v>89</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G9" s="44" t="s">
         <v>23</v>
@@ -7726,20 +7742,20 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topLeft" activeCell="M16" activeCellId="1" sqref="N1:N2 M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="89.2307692307692"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="121.902834008097"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="129.291497975709"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="122.971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="130.46963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="73.1619433198381"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="73.6963562753036"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -7776,19 +7792,19 @@
         <v>208</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>200</v>
@@ -7809,7 +7825,7 @@
         <v>10</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7820,16 +7836,16 @@
         <v>65</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>68</v>
@@ -7838,10 +7854,10 @@
         <v>209</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K2" s="41" t="s">
         <v>205</v>
@@ -7849,7 +7865,7 @@
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
       <c r="N2" s="60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="61" t="s">
@@ -7876,22 +7892,22 @@
         <v>67</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H3" s="41" t="s">
         <v>209</v>
       </c>
       <c r="I3" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>274</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>272</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>205</v>
@@ -7899,7 +7915,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
       <c r="N3" s="60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O3" s="44"/>
       <c r="P3" s="61" t="s">
@@ -7926,22 +7942,22 @@
         <v>67</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>209</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K4" s="41" t="s">
         <v>205</v>
@@ -7949,7 +7965,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O4" s="44"/>
       <c r="P4" s="61" t="s">
@@ -7976,22 +7992,22 @@
         <v>67</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>209</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>205</v>
@@ -7999,7 +8015,7 @@
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
       <c r="N5" s="60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O5" s="44"/>
       <c r="P5" s="61" t="s">
@@ -8026,22 +8042,22 @@
         <v>67</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>209</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K6" s="41" t="s">
         <v>205</v>
@@ -8049,7 +8065,7 @@
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
       <c r="N6" s="60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6" s="61" t="s">
@@ -8076,22 +8092,22 @@
         <v>67</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>209</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>205</v>
@@ -8099,7 +8115,7 @@
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="61" t="s">
@@ -8126,20 +8142,20 @@
         <v>67</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H8" s="41" t="s">
         <v>209</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="41" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K8" s="41" t="s">
         <v>205</v>
@@ -8147,7 +8163,7 @@
       <c r="L8" s="41"/>
       <c r="M8" s="32"/>
       <c r="N8" s="60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O8" s="44"/>
       <c r="P8" s="61" t="s">
@@ -8168,16 +8184,16 @@
         <v>85</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>83</v>
@@ -8187,15 +8203,15 @@
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="61" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M9" s="44"/>
       <c r="N9" s="60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O9" s="44"/>
       <c r="P9" s="61" t="s">
@@ -8223,7 +8239,7 @@
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>83</v>
@@ -8233,13 +8249,13 @@
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="61" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K10" s="61"/>
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O10" s="63"/>
       <c r="P10" s="61" t="s">
@@ -8267,7 +8283,7 @@
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>83</v>
@@ -8277,13 +8293,13 @@
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="61" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O11" s="63"/>
       <c r="P11" s="61" t="s">
@@ -8315,26 +8331,26 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="N1:N2 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.1943319838057"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="91.0526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -8355,7 +8371,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -8367,19 +8383,19 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>200</v>
@@ -8408,19 +8424,19 @@
         <v>176</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>175</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J2" s="31" t="n">
         <v>0.4</v>
@@ -8455,19 +8471,19 @@
         <v>180</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J3" s="31" t="n">
         <v>0.4</v>
@@ -8502,19 +8518,19 @@
         <v>182</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>175</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J4" s="31" t="n">
         <v>0.1</v>
@@ -8549,19 +8565,19 @@
         <v>184</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G5" s="66" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>160</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J5" s="31" t="n">
         <v>0.1</v>
@@ -8596,26 +8612,26 @@
         <v>186</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>175</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J6" s="68"/>
       <c r="K6" s="69" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L6" s="69" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M6" s="69" t="s">
         <v>207</v>
@@ -8652,24 +8668,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="N1:N2 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.4858299595142"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.9554655870445"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="108.619433198381"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="109.582995951417"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -8697,31 +8713,31 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>200</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>201</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8732,25 +8748,25 @@
         <v>19</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H2" s="71" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I2" s="71" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J2" s="71"/>
       <c r="K2" s="44" t="s">
@@ -8758,7 +8774,7 @@
       </c>
       <c r="L2" s="56"/>
       <c r="M2" s="56" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N2" s="56"/>
       <c r="O2" s="56" t="s">
@@ -8774,22 +8790,22 @@
         <v>24</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G3" s="71" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I3" s="71" t="n">
         <v>2</v>
@@ -8800,7 +8816,7 @@
       </c>
       <c r="L3" s="56"/>
       <c r="M3" s="56" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N3" s="56"/>
       <c r="O3" s="56" t="s">
@@ -8816,25 +8832,25 @@
         <v>26</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G4" s="71" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="44" t="s">
@@ -8842,7 +8858,7 @@
       </c>
       <c r="L4" s="56"/>
       <c r="M4" s="56" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N4" s="56"/>
       <c r="O4" s="56" t="s">
@@ -8869,21 +8885,21 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="N1:N2 D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="104.226720647773"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="102.619433198381"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.19028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="103.582995951417"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -8898,22 +8914,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8931,14 +8947,14 @@
         <v>0.25</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="75" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8956,16 +8972,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="H3" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8983,16 +8999,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="H4" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9012,16 +9028,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,14 +9055,14 @@
         <v>0.25</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G6" s="65"/>
       <c r="H6" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9064,14 +9080,14 @@
         <v>0.25</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G7" s="65"/>
       <c r="H7" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9089,16 +9105,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="H8" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9118,16 +9134,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9145,16 +9161,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="H10" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9172,14 +9188,14 @@
         <v>0.25</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="75" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9197,14 +9213,14 @@
         <v>0.25</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G12" s="65"/>
       <c r="H12" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="75" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9222,16 +9238,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="H13" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9251,16 +9267,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I14" s="75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9278,16 +9294,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="H15" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9305,14 +9321,14 @@
         <v>0.25</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="44" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="75" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
